--- a/手工表上作业.xlsx
+++ b/手工表上作业.xlsx
@@ -68,7 +68,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -645,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +664,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,10 +846,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1508,13 +1539,13 @@
       <c r="I23" s="14">
         <v>7</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="19">
         <v>4</v>
       </c>
       <c r="K23" s="15">
         <v>10</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="20">
         <v>5</v>
       </c>
       <c r="M23">
@@ -1713,6 +1744,177 @@
         <v>17</v>
       </c>
       <c r="F41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9">
+        <v>11</v>
+      </c>
+      <c r="E45" s="17">
+        <v>-14</v>
+      </c>
+      <c r="F45" s="18">
+        <v>-2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12">
+        <v>13</v>
+      </c>
+      <c r="D46" s="6">
+        <v>13</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="13">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>-15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="8">
+        <v>3</v>
+      </c>
+      <c r="K46" s="9">
+        <v>11</v>
+      </c>
+      <c r="L46" s="21">
+        <v>3</v>
+      </c>
+      <c r="M46" s="22">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14">
+        <v>11</v>
+      </c>
+      <c r="D47" s="15">
+        <v>4</v>
+      </c>
+      <c r="E47" s="15">
+        <v>10</v>
+      </c>
+      <c r="F47" s="16">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>-7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="23">
+        <v>1</v>
+      </c>
+      <c r="K47" s="24">
+        <v>9</v>
+      </c>
+      <c r="L47" s="5">
+        <v>2</v>
+      </c>
+      <c r="M47" s="25">
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="26">
+        <v>7</v>
+      </c>
+      <c r="K48" s="15">
+        <v>4</v>
+      </c>
+      <c r="L48" s="15">
+        <v>10</v>
+      </c>
+      <c r="M48" s="16">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13">
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>11</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
         <v>12</v>
       </c>
     </row>
